--- a/Usability Evaluation/Fall Term 2018/Retrieved Data/Usability Combined Data November 22, 2018.xlsx
+++ b/Usability Evaluation/Fall Term 2018/Retrieved Data/Usability Combined Data November 22, 2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Combined Usability" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="Part 2-Graphs, Tables, Charts" sheetId="5" r:id="rId3"/>
     <sheet name="Part 3-Graphs, Tables, Charts" sheetId="6" r:id="rId4"/>
     <sheet name="Part 4-Graphs, Tables, Charts" sheetId="7" r:id="rId5"/>
+    <sheet name="Part 4 (Manuals)-Graphs, Tables" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="227">
   <si>
     <t>#</t>
   </si>
@@ -800,6 +802,12 @@
       <t>Abandoned</t>
     </r>
   </si>
+  <si>
+    <t>Manuals Provided</t>
+  </si>
+  <si>
+    <t>Used Manuals?</t>
+  </si>
 </sst>
 </file>
 
@@ -808,7 +816,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -856,11 +864,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1122,8 +1125,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="185">
+  <cellStyleXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1529,9 +1540,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="185">
+  <cellStyles count="193">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1624,6 +1635,10 @@
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1716,6 +1731,10 @@
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1738,7 +1757,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1825,7 +1843,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1855,7 +1872,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1942,11 +1958,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="2125144120"/>
-        <c:axId val="-2107585560"/>
+        <c:axId val="-2053304600"/>
+        <c:axId val="-2109317272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2125144120"/>
+        <c:axId val="-2053304600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,7 +1971,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2107585560"/>
+        <c:crossAx val="-2109317272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1963,7 +1979,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2107585560"/>
+        <c:axId val="-2109317272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -1987,14 +2003,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125144120"/>
+        <c:crossAx val="-2053304600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -2027,7 +2042,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2126,11 +2140,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2092754696"/>
-        <c:axId val="-2091933576"/>
+        <c:axId val="-2108997128"/>
+        <c:axId val="2124507208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2092754696"/>
+        <c:axId val="-2108997128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2139,7 +2153,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091933576"/>
+        <c:crossAx val="2124507208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2147,7 +2161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2091933576"/>
+        <c:axId val="2124507208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -2171,14 +2185,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2092754696"/>
+        <c:crossAx val="-2108997128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -2211,7 +2224,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2304,11 +2316,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="2124924760"/>
-        <c:axId val="2124880232"/>
+        <c:axId val="-2053841480"/>
+        <c:axId val="2125051480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2124924760"/>
+        <c:axId val="-2053841480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2317,7 +2329,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124880232"/>
+        <c:crossAx val="2125051480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2325,7 +2337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124880232"/>
+        <c:axId val="2125051480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -2378,14 +2390,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124924760"/>
+        <c:crossAx val="-2053841480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -2418,7 +2429,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2511,11 +2521,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2106876744"/>
-        <c:axId val="-2106875336"/>
+        <c:axId val="-2053264296"/>
+        <c:axId val="2064053880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2106876744"/>
+        <c:axId val="-2053264296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,7 +2534,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106875336"/>
+        <c:crossAx val="2064053880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2532,7 +2542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2106875336"/>
+        <c:axId val="2064053880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -2585,14 +2595,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106876744"/>
+        <c:crossAx val="-2053264296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -2625,7 +2634,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2724,11 +2732,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="2124035304"/>
-        <c:axId val="2123714184"/>
+        <c:axId val="2125029112"/>
+        <c:axId val="-2053729592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2124035304"/>
+        <c:axId val="2125029112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2737,7 +2745,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123714184"/>
+        <c:crossAx val="-2053729592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2745,7 +2753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2123714184"/>
+        <c:axId val="-2053729592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -2798,14 +2806,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124035304"/>
+        <c:crossAx val="2125029112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -2838,7 +2845,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2937,11 +2943,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2089381272"/>
-        <c:axId val="-2089379864"/>
+        <c:axId val="2112904792"/>
+        <c:axId val="2113600152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2089381272"/>
+        <c:axId val="2112904792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2950,7 +2956,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2089379864"/>
+        <c:crossAx val="2113600152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2958,7 +2964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2089379864"/>
+        <c:axId val="2113600152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -3011,14 +3017,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2089381272"/>
+        <c:crossAx val="2112904792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -3051,7 +3056,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3144,11 +3148,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2091994792"/>
-        <c:axId val="-2091981896"/>
+        <c:axId val="-2095404600"/>
+        <c:axId val="-2095396728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2091994792"/>
+        <c:axId val="-2095404600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3157,7 +3161,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091981896"/>
+        <c:crossAx val="-2095396728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3165,7 +3169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2091981896"/>
+        <c:axId val="-2095396728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -3218,14 +3222,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091994792"/>
+        <c:crossAx val="-2095404600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -3258,7 +3261,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3351,11 +3353,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2092535304"/>
-        <c:axId val="-2122543736"/>
+        <c:axId val="-2092508728"/>
+        <c:axId val="-2045217432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2092535304"/>
+        <c:axId val="-2092508728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3364,7 +3366,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122543736"/>
+        <c:crossAx val="-2045217432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3372,7 +3374,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122543736"/>
+        <c:axId val="-2045217432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -3425,14 +3427,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2092535304"/>
+        <c:crossAx val="-2092508728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -3465,7 +3466,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3564,11 +3564,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2091817112"/>
-        <c:axId val="-2090904888"/>
+        <c:axId val="-2096054008"/>
+        <c:axId val="2131894632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2091817112"/>
+        <c:axId val="-2096054008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3577,7 +3577,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2090904888"/>
+        <c:crossAx val="2131894632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3585,7 +3585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2090904888"/>
+        <c:axId val="2131894632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -3609,14 +3609,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091817112"/>
+        <c:crossAx val="-2096054008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -3649,7 +3648,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3748,11 +3746,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2093006440"/>
-        <c:axId val="-2093898440"/>
+        <c:axId val="-2092392152"/>
+        <c:axId val="-2049664808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2093006440"/>
+        <c:axId val="-2092392152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3761,7 +3759,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2093898440"/>
+        <c:crossAx val="-2049664808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3769,7 +3767,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2093898440"/>
+        <c:axId val="-2049664808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -3793,14 +3791,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2093006440"/>
+        <c:crossAx val="-2092392152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -3833,7 +3830,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3914,7 +3910,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3944,7 +3939,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4043,11 +4037,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2089718968"/>
-        <c:axId val="-2089679480"/>
+        <c:axId val="-2091983624"/>
+        <c:axId val="-2050382056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2089718968"/>
+        <c:axId val="-2091983624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4056,7 +4050,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2089679480"/>
+        <c:crossAx val="-2050382056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4064,7 +4058,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2089679480"/>
+        <c:axId val="-2050382056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -4088,14 +4082,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2089718968"/>
+        <c:crossAx val="-2091983624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -4128,7 +4121,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4227,11 +4219,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2096185048"/>
-        <c:axId val="-2111525848"/>
+        <c:axId val="-2048238712"/>
+        <c:axId val="2065205768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2096185048"/>
+        <c:axId val="-2048238712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4240,7 +4232,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111525848"/>
+        <c:crossAx val="2065205768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4248,7 +4240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2111525848"/>
+        <c:axId val="2065205768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -4272,14 +4264,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2096185048"/>
+        <c:crossAx val="-2048238712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -4312,7 +4303,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4411,11 +4401,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2090478344"/>
-        <c:axId val="-2090545832"/>
+        <c:axId val="-2049843416"/>
+        <c:axId val="-2124207560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2090478344"/>
+        <c:axId val="-2049843416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4424,7 +4414,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2090545832"/>
+        <c:crossAx val="-2124207560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4432,7 +4422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2090545832"/>
+        <c:axId val="-2124207560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -4456,14 +4446,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2090478344"/>
+        <c:crossAx val="-2049843416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -4496,7 +4485,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4595,11 +4583,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2090046712"/>
-        <c:axId val="-2090045304"/>
+        <c:axId val="-2092056360"/>
+        <c:axId val="2132062920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2090046712"/>
+        <c:axId val="-2092056360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4608,7 +4596,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2090045304"/>
+        <c:crossAx val="2132062920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4616,7 +4604,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2090045304"/>
+        <c:axId val="2132062920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -4640,14 +4628,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2090046712"/>
+        <c:crossAx val="-2092056360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -4680,7 +4667,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4779,11 +4765,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2092209416"/>
-        <c:axId val="-2107882856"/>
+        <c:axId val="-2091685144"/>
+        <c:axId val="-2048972200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2092209416"/>
+        <c:axId val="-2091685144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4792,7 +4778,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2107882856"/>
+        <c:crossAx val="-2048972200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4800,7 +4786,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2107882856"/>
+        <c:axId val="-2048972200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -4824,14 +4810,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2092209416"/>
+        <c:crossAx val="-2091685144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -4864,7 +4849,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4963,11 +4947,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2070999416"/>
-        <c:axId val="-2070998008"/>
+        <c:axId val="-2053263512"/>
+        <c:axId val="-2109787160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2070999416"/>
+        <c:axId val="-2053263512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4976,7 +4960,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070998008"/>
+        <c:crossAx val="-2109787160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4984,7 +4968,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2070998008"/>
+        <c:axId val="-2109787160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -5008,14 +4992,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070999416"/>
+        <c:crossAx val="-2053263512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -5048,7 +5031,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5147,11 +5129,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2090212648"/>
-        <c:axId val="-2123042600"/>
+        <c:axId val="-2110192120"/>
+        <c:axId val="-2054100024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2090212648"/>
+        <c:axId val="-2110192120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5160,7 +5142,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123042600"/>
+        <c:crossAx val="-2054100024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5168,7 +5150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123042600"/>
+        <c:axId val="-2054100024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -5197,14 +5179,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2090212648"/>
+        <c:crossAx val="-2110192120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -5237,7 +5218,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5336,11 +5316,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2091062104"/>
-        <c:axId val="-2089875272"/>
+        <c:axId val="-2048149544"/>
+        <c:axId val="-2092882280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2091062104"/>
+        <c:axId val="-2048149544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5349,7 +5329,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2089875272"/>
+        <c:crossAx val="-2092882280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5357,7 +5337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2089875272"/>
+        <c:axId val="-2092882280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -5381,14 +5361,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091062104"/>
+        <c:crossAx val="-2048149544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -5421,7 +5400,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5520,11 +5498,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2123387656"/>
-        <c:axId val="-2090706360"/>
+        <c:axId val="2136479752"/>
+        <c:axId val="-2049915384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2123387656"/>
+        <c:axId val="2136479752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5533,7 +5511,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2090706360"/>
+        <c:crossAx val="-2049915384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5541,7 +5519,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2090706360"/>
+        <c:axId val="-2049915384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -5570,14 +5548,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123387656"/>
+        <c:crossAx val="2136479752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -5610,7 +5587,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5709,11 +5685,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2111234536"/>
-        <c:axId val="-2093947848"/>
+        <c:axId val="-2047946200"/>
+        <c:axId val="-2089969864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2111234536"/>
+        <c:axId val="-2047946200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5722,7 +5698,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2093947848"/>
+        <c:crossAx val="-2089969864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5730,7 +5706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2093947848"/>
+        <c:axId val="-2089969864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -5754,14 +5730,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111234536"/>
+        <c:crossAx val="-2047946200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -5794,7 +5769,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5875,7 +5849,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5905,7 +5878,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5992,11 +5964,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2113740568"/>
-        <c:axId val="-2071916712"/>
+        <c:axId val="-2052847416"/>
+        <c:axId val="2138047000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2113740568"/>
+        <c:axId val="-2052847416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6018,14 +5990,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071916712"/>
+        <c:crossAx val="2138047000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6033,7 +6004,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071916712"/>
+        <c:axId val="2138047000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6069,14 +6040,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113740568"/>
+        <c:crossAx val="-2052847416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6108,7 +6078,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6195,11 +6164,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="2123422936"/>
-        <c:axId val="-2107883256"/>
+        <c:axId val="2124571576"/>
+        <c:axId val="-2110044472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2123422936"/>
+        <c:axId val="2124571576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6221,14 +6190,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2107883256"/>
+        <c:crossAx val="-2110044472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6236,7 +6204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2107883256"/>
+        <c:axId val="-2110044472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6264,14 +6232,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123422936"/>
+        <c:crossAx val="2124571576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6303,7 +6270,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6390,11 +6356,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="2127994632"/>
-        <c:axId val="-2065016456"/>
+        <c:axId val="2124832280"/>
+        <c:axId val="2064572296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2127994632"/>
+        <c:axId val="2124832280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6416,14 +6382,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2065016456"/>
+        <c:crossAx val="2064572296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6431,7 +6396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2065016456"/>
+        <c:axId val="2064572296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6459,14 +6424,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127994632"/>
+        <c:crossAx val="2124832280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6498,7 +6462,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6585,11 +6548,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2070381064"/>
-        <c:axId val="-2069934792"/>
+        <c:axId val="-2054062328"/>
+        <c:axId val="-2053000488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2070381064"/>
+        <c:axId val="-2054062328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6611,13 +6574,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2069934792"/>
+        <c:crossAx val="-2053000488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6625,7 +6587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2069934792"/>
+        <c:axId val="-2053000488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6653,14 +6615,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070381064"/>
+        <c:crossAx val="-2054062328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6692,7 +6653,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6779,11 +6739,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2053476760"/>
-        <c:axId val="-2052920712"/>
+        <c:axId val="-2053191768"/>
+        <c:axId val="-2110202616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2053476760"/>
+        <c:axId val="-2053191768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6805,13 +6765,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2052920712"/>
+        <c:crossAx val="-2110202616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6819,7 +6778,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2052920712"/>
+        <c:axId val="-2110202616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6842,14 +6801,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2053476760"/>
+        <c:crossAx val="-2053191768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6881,7 +6839,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6968,11 +6925,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2053860888"/>
-        <c:axId val="-2053467576"/>
+        <c:axId val="2124939144"/>
+        <c:axId val="2138216072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2053860888"/>
+        <c:axId val="2124939144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6994,13 +6951,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2053467576"/>
+        <c:crossAx val="2138216072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7008,7 +6964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2053467576"/>
+        <c:axId val="2138216072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -7037,14 +6993,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2053860888"/>
+        <c:crossAx val="2124939144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7076,7 +7031,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7163,11 +7117,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2049725560"/>
-        <c:axId val="-2050154328"/>
+        <c:axId val="2063631688"/>
+        <c:axId val="2063911576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2049725560"/>
+        <c:axId val="2063631688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7176,7 +7130,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2050154328"/>
+        <c:crossAx val="2063911576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7184,7 +7138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2050154328"/>
+        <c:axId val="2063911576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -7208,14 +7162,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2049725560"/>
+        <c:crossAx val="2063631688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -7248,7 +7201,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7335,11 +7287,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2094788440"/>
-        <c:axId val="-2070594712"/>
+        <c:axId val="-2053629576"/>
+        <c:axId val="-2053811336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2094788440"/>
+        <c:axId val="-2053629576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7361,14 +7313,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070594712"/>
+        <c:crossAx val="-2053811336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7376,7 +7327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2070594712"/>
+        <c:axId val="-2053811336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -7405,14 +7356,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094788440"/>
+        <c:crossAx val="-2053629576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7444,7 +7394,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7531,11 +7480,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2049248664"/>
-        <c:axId val="-2049247256"/>
+        <c:axId val="-2044572712"/>
+        <c:axId val="2112920104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2049248664"/>
+        <c:axId val="-2044572712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7557,13 +7506,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2049247256"/>
+        <c:crossAx val="2112920104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7571,7 +7519,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2049247256"/>
+        <c:axId val="2112920104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -7595,14 +7543,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2049248664"/>
+        <c:crossAx val="-2044572712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7634,7 +7581,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7721,11 +7667,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2064682728"/>
-        <c:axId val="-2065234392"/>
+        <c:axId val="-2048962824"/>
+        <c:axId val="-2092348488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2064682728"/>
+        <c:axId val="-2048962824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7747,13 +7693,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2065234392"/>
+        <c:crossAx val="-2092348488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7761,7 +7706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2065234392"/>
+        <c:axId val="-2092348488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -7785,14 +7730,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2064682728"/>
+        <c:crossAx val="-2048962824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7824,7 +7768,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7912,11 +7855,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="2135476680"/>
-        <c:axId val="-2122510056"/>
+        <c:axId val="2124635304"/>
+        <c:axId val="-2108897752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2135476680"/>
+        <c:axId val="2124635304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7926,7 +7869,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122510056"/>
+        <c:crossAx val="-2108897752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7934,7 +7877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122510056"/>
+        <c:axId val="-2108897752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7957,14 +7900,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135476680"/>
+        <c:crossAx val="2124635304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7996,7 +7938,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8083,11 +8024,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2055174184"/>
-        <c:axId val="-2063661528"/>
+        <c:axId val="-2053972344"/>
+        <c:axId val="-2053322648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2055174184"/>
+        <c:axId val="-2053972344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8109,13 +8050,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2063661528"/>
+        <c:crossAx val="-2053322648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8123,7 +8063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2063661528"/>
+        <c:axId val="-2053322648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -8152,14 +8092,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2055174184"/>
+        <c:crossAx val="-2053972344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8191,7 +8130,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8278,11 +8216,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2051268824"/>
-        <c:axId val="-2090753640"/>
+        <c:axId val="-2053142344"/>
+        <c:axId val="-2053314600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2051268824"/>
+        <c:axId val="-2053142344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8304,13 +8242,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2090753640"/>
+        <c:crossAx val="-2053314600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8318,7 +8255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2090753640"/>
+        <c:axId val="-2053314600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -8342,14 +8279,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2051268824"/>
+        <c:crossAx val="-2053142344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8381,7 +8317,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8468,11 +8403,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2091001288"/>
-        <c:axId val="-2048779496"/>
+        <c:axId val="2124897304"/>
+        <c:axId val="-2127661624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2091001288"/>
+        <c:axId val="2124897304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8494,13 +8429,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2048779496"/>
+        <c:crossAx val="-2127661624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8508,7 +8442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2048779496"/>
+        <c:axId val="-2127661624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -8532,14 +8466,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2091001288"/>
+        <c:crossAx val="2124897304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8571,7 +8504,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8658,11 +8590,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2070789880"/>
-        <c:axId val="-2049115512"/>
+        <c:axId val="2125326952"/>
+        <c:axId val="-2052984248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2070789880"/>
+        <c:axId val="2125326952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8684,13 +8616,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2049115512"/>
+        <c:crossAx val="-2052984248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8698,7 +8629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2049115512"/>
+        <c:axId val="-2052984248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -8722,16 +8653,303 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070789880"/>
+        <c:crossAx val="2125326952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 4 (Manuals)-Graphs, Tables'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manuals Provided</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 4 (Manuals)-Graphs, Tables'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Yes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 4 (Manuals)-Graphs, Tables'!$C$3:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="2064262808"/>
+        <c:axId val="-2053794456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2064262808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2053794456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2053794456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2064262808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 4 (Manuals)-Graphs, Tables'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Used Manuals?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 4 (Manuals)-Graphs, Tables'!$H$3:$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Yes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 4 (Manuals)-Graphs, Tables'!$I$3:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2052871304"/>
+        <c:axId val="-2053555176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2052871304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2053555176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2053555176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2052871304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -8761,7 +8979,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8836,7 +9053,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8866,7 +9082,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8941,7 +9156,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8971,7 +9185,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9064,11 +9277,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="-2092811432"/>
-        <c:axId val="-2092811896"/>
+        <c:axId val="-2053778184"/>
+        <c:axId val="-2109326648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2092811432"/>
+        <c:axId val="-2053778184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9077,7 +9290,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2092811896"/>
+        <c:crossAx val="-2109326648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9085,7 +9298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2092811896"/>
+        <c:axId val="-2109326648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -9109,14 +9322,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2092811432"/>
+        <c:crossAx val="-2053778184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -9149,7 +9361,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9254,11 +9465,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="2064071064"/>
-        <c:axId val="-2124747080"/>
+        <c:axId val="-2052840552"/>
+        <c:axId val="2063969224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2064071064"/>
+        <c:axId val="-2052840552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9267,7 +9478,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124747080"/>
+        <c:crossAx val="2063969224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9275,7 +9486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124747080"/>
+        <c:axId val="2063969224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -9299,14 +9510,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064071064"/>
+        <c:crossAx val="-2052840552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -9339,7 +9549,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9420,7 +9629,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10747,6 +10955,71 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11071,8 +11344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G975"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -13630,7 +13903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:S57"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -13919,7 +14192,7 @@
   <dimension ref="C4:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14052,7 +14325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:N176"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
+    <sheetView topLeftCell="B8" workbookViewId="0">
       <selection activeCell="K148" sqref="K148"/>
     </sheetView>
   </sheetViews>
@@ -14850,8 +15123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15304,4 +15577,98 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="3" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="8" max="9" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="4" customWidth="1"/>
+    <col min="13" max="14" width="20.83203125" customWidth="1"/>
+    <col min="16" max="16" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="2"/>
+      <c r="C2" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="71" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="72">
+        <v>2</v>
+      </c>
+      <c r="H3" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="72">
+        <v>2</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="H5" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="72">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>